--- a/Result/LSTM Multi/Manufacturing/GBR.xlsx
+++ b/Result/LSTM Multi/Manufacturing/GBR.xlsx
@@ -636,7 +636,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>9.426084518432617</v>
+        <v>9.479321479797363</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -644,7 +644,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>9.254299163818359</v>
+        <v>9.28740119934082</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -652,7 +652,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>9.204431533813477</v>
+        <v>9.120650291442871</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -660,7 +660,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>9.212815284729004</v>
+        <v>9.147848129272461</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -668,7 +668,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>9.431559562683105</v>
+        <v>9.371026992797852</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +974,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>10.30542850494385</v>
+        <v>10.37166881561279</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -982,7 +982,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>10.13895320892334</v>
+        <v>10.17761325836182</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -990,7 +990,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>10.20148372650146</v>
+        <v>10.110032081604</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -998,7 +998,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>9.98642635345459</v>
+        <v>9.86927318572998</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>9.96869945526123</v>
+        <v>9.929975509643555</v>
       </c>
     </row>
   </sheetData>
